--- a/posesiones/1381257.xlsx
+++ b/posesiones/1381257.xlsx
@@ -1829,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>15</v>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>18</v>
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>20</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>18</v>
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R12">
         <v>10</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R14">
         <v>19</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16">
         <v>6</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>32</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>15</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2891,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24">
         <v>20</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26">
         <v>12</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R28">
         <v>28</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>12</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R34">
         <v>30</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36">
         <v>14</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3591,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R38">
         <v>22</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>8</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R46">
         <v>24</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4091,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R48">
         <v>23</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4191,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50">
         <v>17</v>
@@ -4244,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R51">
         <v>9</v>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R53">
         <v>7</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4450,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R55">
         <v>10</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4553,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R57">
         <v>9</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R61">
         <v>22</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R63">
         <v>12</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R65">
         <v>4</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R67">
         <v>9</v>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5200,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5441,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R75">
         <v>21</v>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R78">
         <v>32</v>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5976,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R88">
         <v>32</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R90">
         <v>18</v>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6279,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R92">
         <v>8</v>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R93">
         <v>14</v>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6620,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R99">
         <v>22</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6767,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R102">
         <v>5</v>
@@ -6811,10 +6811,10 @@
         <v>1</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7137,10 +7137,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7184,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7234,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R112">
         <v>15</v>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R116">
         <v>15</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7537,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R118">
         <v>5</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7637,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R120">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7787,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R123">
         <v>18</v>
@@ -7840,7 +7840,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R124">
         <v>18</v>
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R131">
         <v>18</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8278,7 +8278,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R133">
         <v>10</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R138">
         <v>11</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8669,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R141">
         <v>15</v>
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R147">
         <v>13</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9060,7 +9060,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R149">
         <v>9</v>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R151">
         <v>9</v>
@@ -9213,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R153">
         <v>20</v>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9454,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9554,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R159">
         <v>14</v>
@@ -9601,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9839,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10080,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R170">
         <v>63</v>
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R171">
         <v>21</v>
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10236,7 +10236,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R173">
         <v>11</v>
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R174">
         <v>14</v>
@@ -10342,7 +10342,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R175">
         <v>20</v>
@@ -10395,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R177">
         <v>14</v>
@@ -10498,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10548,7 +10548,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R179">
         <v>9</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10645,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10833,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11118,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11168,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R192">
         <v>29</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11318,7 +11318,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R195">
         <v>1</v>
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R196">
         <v>13</v>
@@ -11424,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11565,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11612,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11709,7 +11709,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R203">
         <v>0</v>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11809,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12094,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R211">
         <v>34</v>
@@ -12147,7 +12147,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R212">
         <v>18</v>
@@ -12197,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12338,7 +12338,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R217">
         <v>14</v>
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12485,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12532,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12582,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12632,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R222">
         <v>22</v>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12732,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12779,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12876,7 +12876,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R227">
         <v>11</v>
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13026,7 +13026,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R230">
         <v>34</v>
@@ -13079,7 +13079,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R231">
         <v>13</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R233">
         <v>13</v>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13285,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R235">
         <v>20</v>
@@ -13338,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13388,7 +13388,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R237">
         <v>17</v>
@@ -13444,7 +13444,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R238">
         <v>0</v>
@@ -13488,10 +13488,10 @@
         <v>1</v>
       </c>
       <c r="P239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q239">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13538,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13726,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13814,10 +13814,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13867,7 +13867,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R247">
         <v>22</v>
@@ -13920,7 +13920,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R248">
         <v>12</v>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14067,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14117,7 +14117,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R252">
         <v>14</v>
@@ -14170,7 +14170,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R253">
         <v>25</v>
@@ -14220,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14267,7 +14267,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14314,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14364,7 +14364,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R257">
         <v>22</v>
@@ -14417,7 +14417,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14467,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R259">
         <v>6</v>
@@ -14520,7 +14520,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R260">
         <v>17</v>
@@ -14570,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14620,7 +14620,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R262">
         <v>17</v>
@@ -14670,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14817,7 +14817,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R266">
         <v>38</v>
@@ -14870,7 +14870,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R267">
         <v>16</v>
@@ -14920,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14967,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15014,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15064,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R271">
         <v>20</v>
@@ -15117,7 +15117,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15167,7 +15167,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R273">
         <v>22</v>
@@ -15214,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15264,7 +15264,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R275">
         <v>31</v>
@@ -15317,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15364,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15411,7 +15411,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15458,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15505,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15555,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R281">
         <v>17</v>
@@ -15605,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R283">
         <v>16</v>
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15802,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15849,7 +15849,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15899,7 +15899,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R288">
         <v>15</v>
@@ -15952,7 +15952,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R289">
         <v>20</v>
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16052,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R291">
         <v>7</v>
@@ -16105,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R293">
         <v>9</v>
@@ -16205,7 +16205,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16255,7 +16255,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R295">
         <v>19</v>
@@ -16305,7 +16305,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16446,7 +16446,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16634,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16684,7 +16684,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R304">
         <v>16</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16784,7 +16784,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R306">
         <v>18</v>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16884,7 +16884,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16931,7 +16931,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16981,7 +16981,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17031,7 +17031,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R311">
         <v>16</v>
@@ -17084,7 +17084,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R312">
         <v>16</v>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17181,7 +17181,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17228,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17278,7 +17278,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17328,7 +17328,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R317">
         <v>7</v>
@@ -17375,7 +17375,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R319">
         <v>22</v>
@@ -17478,7 +17478,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17528,7 +17528,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R321">
         <v>18</v>
@@ -17578,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17628,7 +17628,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17678,7 +17678,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R324">
         <v>17</v>
@@ -17731,7 +17731,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17781,7 +17781,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R326">
         <v>16</v>
@@ -17834,7 +17834,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R327">
         <v>11</v>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17931,7 +17931,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17978,7 +17978,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18072,7 +18072,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18166,7 +18166,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18213,7 +18213,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18263,7 +18263,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R336">
         <v>16</v>
@@ -18313,7 +18313,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R337">
         <v>24</v>
@@ -18363,7 +18363,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18410,7 +18410,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18460,7 +18460,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R340">
         <v>20</v>
@@ -18510,7 +18510,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18557,7 +18557,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18604,7 +18604,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18651,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18745,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18792,7 +18792,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18839,7 +18839,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18933,7 +18933,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18980,7 +18980,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19077,7 +19077,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R353">
         <v>16</v>
@@ -19121,10 +19121,10 @@
         <v>1</v>
       </c>
       <c r="P354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q354">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19171,7 +19171,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19218,7 +19218,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19265,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19312,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19359,7 +19359,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19406,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19447,10 +19447,10 @@
         <v>1</v>
       </c>
       <c r="P361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q361">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19500,7 +19500,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R362">
         <v>11</v>
@@ -19553,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19600,7 +19600,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19647,7 +19647,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19694,7 +19694,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19744,7 +19744,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R367">
         <v>19</v>
@@ -19797,7 +19797,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R368">
         <v>13</v>
@@ -19850,7 +19850,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R369">
         <v>18</v>
@@ -19900,7 +19900,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19950,7 +19950,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R371">
         <v>6</v>
@@ -20000,7 +20000,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20050,7 +20050,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R373">
         <v>23</v>
@@ -20100,7 +20100,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20150,7 +20150,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R375">
         <v>21</v>
@@ -20200,7 +20200,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20247,7 +20247,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20294,7 +20294,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20344,7 +20344,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20394,7 +20394,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R380">
         <v>35</v>
@@ -20447,7 +20447,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R381">
         <v>20</v>
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20550,7 +20550,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R383">
         <v>6</v>
@@ -20600,7 +20600,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20650,7 +20650,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R385">
         <v>16</v>
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20797,7 +20797,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20847,7 +20847,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R389">
         <v>27</v>
@@ -20897,7 +20897,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20947,7 +20947,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R391">
         <v>12</v>
@@ -20997,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21044,7 +21044,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21091,7 +21091,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21141,7 +21141,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R395">
         <v>26</v>
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21288,7 +21288,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R398">
         <v>16</v>
@@ -21338,7 +21338,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21388,7 +21388,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R400">
         <v>5</v>
@@ -21441,7 +21441,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21488,7 +21488,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21535,7 +21535,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21582,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21629,7 +21629,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21726,7 +21726,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R407">
         <v>15</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21829,7 +21829,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R409">
         <v>19</v>
@@ -21879,7 +21879,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21926,7 +21926,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21973,7 +21973,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22023,7 +22023,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22070,7 +22070,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22120,7 +22120,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22170,7 +22170,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R416">
         <v>38</v>
@@ -22217,7 +22217,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22267,7 +22267,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R418">
         <v>17</v>
@@ -22317,7 +22317,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22364,7 +22364,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22411,7 +22411,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22458,7 +22458,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22555,7 +22555,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R424">
         <v>15</v>
@@ -22608,7 +22608,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R425">
         <v>15</v>
@@ -22658,7 +22658,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22805,7 +22805,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R429">
         <v>13</v>
@@ -22855,7 +22855,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22902,7 +22902,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22952,7 +22952,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23002,7 +23002,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R433">
         <v>21</v>
@@ -23055,7 +23055,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23105,7 +23105,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R435">
         <v>17</v>
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23246,7 +23246,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23293,7 +23293,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23437,7 +23437,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R442">
         <v>15</v>
@@ -23490,7 +23490,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R443">
         <v>7</v>
@@ -23543,7 +23543,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R444">
         <v>15</v>
@@ -23596,7 +23596,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R445">
         <v>26</v>
@@ -23649,7 +23649,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23699,7 +23699,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R447">
         <v>13</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23802,7 +23802,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R449">
         <v>19</v>
@@ -23852,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23902,7 +23902,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R451">
         <v>5</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23996,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24046,7 +24046,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R454">
         <v>15</v>
@@ -24096,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24146,7 +24146,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R456">
         <v>13</v>
@@ -24196,7 +24196,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24243,7 +24243,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24340,7 +24340,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R460">
         <v>2</v>
@@ -24393,7 +24393,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R461">
         <v>7</v>
@@ -24440,7 +24440,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24534,7 +24534,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24675,7 +24675,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24769,7 +24769,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24819,7 +24819,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R470">
         <v>1</v>
@@ -24872,7 +24872,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R471">
         <v>8</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24972,7 +24972,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25019,7 +25019,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25066,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25113,7 +25113,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25160,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25210,7 +25210,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R478">
         <v>0</v>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R479">
         <v>4</v>
@@ -25316,7 +25316,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R480">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>1</v>
       </c>
       <c r="P481" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q481">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="482" spans="1:17">
@@ -25404,7 +25404,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
